--- a/集計.xlsx
+++ b/集計.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56727EE4-76BF-4B40-847E-895220437D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,36 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>シュートに関する集計</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +90,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF7699F-9C7F-452B-9E2F-878C3EFCA6F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="552450"/>
+          <a:ext cx="3905250" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +409,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/集計.xlsx
+++ b/集計.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56727EE4-76BF-4B40-847E-895220437D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79802A81-A870-4B18-88FD-E769C46EF1D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="住吉" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>シュートに関する集計</t>
     <rPh sb="5" eb="6">
@@ -29,6 +30,24 @@
     <rPh sb="8" eb="10">
       <t>シュウケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2016/3/5 ~ 2016/04/07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計期間</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オークション</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -72,9 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -136,6 +158,363 @@
         <a:xfrm>
           <a:off x="733425" y="552450"/>
           <a:ext cx="3905250" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B8993C-0B46-402D-85CE-6AB60F7DCE32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058025" y="409575"/>
+          <a:ext cx="1400000" cy="1152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266570</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E981BB3-93C6-4165-AAE4-4E635EA322EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333625" y="542925"/>
+          <a:ext cx="1038095" cy="657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666601</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0AB088-6F1C-4E19-A1FE-B4F61D3398A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="628650"/>
+          <a:ext cx="1190476" cy="1419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95074</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0776EDF7-7981-4DEB-86C5-0A0027C61B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="628650"/>
+          <a:ext cx="1409524" cy="5980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571315</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>37351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CDAA32-ED4D-4A1D-A375-ED4A6443F648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="1905000"/>
+          <a:ext cx="1476190" cy="5990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180821</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C93B55F-DDC3-4578-89C3-22F27E5CC8D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="419100"/>
+          <a:ext cx="1228571" cy="1571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285551</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B816BA-DE56-4E3D-9D8D-2C58182EDFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="2743200"/>
+          <a:ext cx="1590476" cy="676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C742A69D-6DE6-49EC-89E6-DE1AD83E9E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8724900" y="333375"/>
+          <a:ext cx="923810" cy="2085714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -412,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="L11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -434,4 +813,44 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85F1F7B-C977-49AC-B484-372B9D0E2F96}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>